--- a/Document/LevelDesign.xlsx
+++ b/Document/LevelDesign.xlsx
@@ -10,9 +10,10 @@
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
     <sheet name="Level2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
   <si>
     <t>Level</t>
   </si>
@@ -213,6 +214,81 @@
   </si>
   <si>
     <t>12 0 12 21 0 11 11 12</t>
+  </si>
+  <si>
+    <t>11 11 0 12 0 21 12</t>
+  </si>
+  <si>
+    <t>11 21 0 12 0 11 21</t>
+  </si>
+  <si>
+    <t>11 12 0 21 11 0 21</t>
+  </si>
+  <si>
+    <t>12 0 11 12 21 0 12</t>
+  </si>
+  <si>
+    <t>11 12 12 0 21 0 22</t>
+  </si>
+  <si>
+    <t>12 12 0 21 11 0 21</t>
+  </si>
+  <si>
+    <t>11 12 21 0 22 0 21</t>
+  </si>
+  <si>
+    <t>21 0 22 0 12 11 12 0 22</t>
+  </si>
+  <si>
+    <t>11 12 11  0 21 12 0 22 0 11 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 11 22 21 0 12  0 21 0 22  </t>
+  </si>
+  <si>
+    <t>11 12 21 0 11 22 0 22</t>
+  </si>
+  <si>
+    <t>12 11 0 11 12 0 21 31</t>
+  </si>
+  <si>
+    <t>11 12 11 21 0 22 21 0 12 0 22</t>
+  </si>
+  <si>
+    <t>12 21 11 0 12 11 0 22 0 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 11 12 0 22 22 0 12 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 11 11 0 22 0 22 </t>
+  </si>
+  <si>
+    <t>22 12 0 12 0 22 21 0 22 21</t>
+  </si>
+  <si>
+    <t>12 22 0 21 22 0 12 21 0 22</t>
+  </si>
+  <si>
+    <t>22 22 0 12 21 12 0 21 0 22</t>
+  </si>
+  <si>
+    <t>12 21 12 0 22 21 0 12 21 0 22</t>
+  </si>
+  <si>
+    <t>Gun5</t>
+  </si>
+  <si>
+    <t>Gun6</t>
+  </si>
+  <si>
+    <t>Gun7</t>
+  </si>
+  <si>
+    <t>Gun8</t>
+  </si>
+  <si>
+    <t>Gun 9</t>
   </si>
 </sst>
 </file>
@@ -310,8 +386,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -335,17 +421,27 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -945,7 +1041,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O20"/>
+      <selection activeCell="M3" sqref="M3:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1072,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C3 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D3 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E3 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F3 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G3 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H3 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I3 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J3 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K3 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L3</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C3 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D3 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E3 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F3 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G3 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H3 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I3 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J3 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K3 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L3</f>
         <v>792</v>
       </c>
       <c r="N3" t="s">
@@ -1122,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C4 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D4 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E4 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F4 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G4 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H4 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I4 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J4 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K4 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L4</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C4 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D4 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E4 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F4 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G4 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H4 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I4 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J4 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K4 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L4</f>
         <v>990</v>
       </c>
       <c r="N4" t="s">
@@ -1172,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C5 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D5 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E5 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F5 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G5 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H5 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I5 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J5 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K5 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L5</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C5 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D5 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E5 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F5 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G5 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H5 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I5 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J5 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K5 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L5</f>
         <v>1590</v>
       </c>
       <c r="N5" t="s">
@@ -1222,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C6 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D6 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E6 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F6 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G6 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H6 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I6 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J6 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K6 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L6</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C6 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D6 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E6 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F6 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G6 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H6 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I6 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J6 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K6 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L6</f>
         <v>1890</v>
       </c>
       <c r="N6" t="s">
@@ -1272,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C7 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D7 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E7 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F7 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G7 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H7 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I7 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J7 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K7 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L7</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C7 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D7 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E7 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F7 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G7 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H7 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I7 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J7 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K7 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L7</f>
         <v>1890</v>
       </c>
       <c r="N7" t="s">
@@ -1322,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C8 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D8 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E8 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F8 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G8 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H8 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I8 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J8 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K8 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L8</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C8 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D8 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E8 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F8 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G8 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H8 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I8 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J8 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K8 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L8</f>
         <v>1491</v>
       </c>
       <c r="N8" t="s">
@@ -1372,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C9 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D9 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E9 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F9 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G9 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H9 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I9 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J9 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K9 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L9</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C9 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D9 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E9 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F9 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G9 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H9 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I9 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J9 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K9 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L9</f>
         <v>2048</v>
       </c>
       <c r="N9" t="s">
@@ -1422,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C10 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D10 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E10 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F10 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G10 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H10 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I10 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J10 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K10 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L10</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C10 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D10 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E10 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F10 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G10 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H10 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I10 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J10 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K10 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L10</f>
         <v>2305</v>
       </c>
       <c r="N10" t="s">
@@ -1472,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C11 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D11 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E11 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F11 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G11 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H11 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I11 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J11 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K11 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L11</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C11 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D11 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E11 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F11 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G11 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H11 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I11 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J11 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K11 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L11</f>
         <v>2546</v>
       </c>
       <c r="N11" t="s">
@@ -1522,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C12 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D12 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E12 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F12 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G12 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H12 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I12 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J12 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K12 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L12</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C12 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D12 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E12 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F12 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G12 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H12 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I12 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J12 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K12 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L12</f>
         <v>2447</v>
       </c>
       <c r="N12" t="s">
@@ -1690,12 +1786,12 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1819,8 +1915,14 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C3 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D3 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E3 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F3 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G3 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H3 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I3 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J3 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K3 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L3</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C3 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D3 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E3 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F3 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G3 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H3 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I3 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J3 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K3 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L3</f>
         <v>2127</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1863,8 +1965,14 @@
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C4 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D4 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E4 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F4 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G4 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H4 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I4 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J4 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K4 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L4</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C4 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D4 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E4 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F4 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G4 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H4 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I4 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J4 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K4 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L4</f>
         <v>2427</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1907,8 +2015,14 @@
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C5 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D5 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E5 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F5 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G5 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H5 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I5 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J5 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K5 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L5</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C5 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D5 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E5 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F5 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G5 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H5 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I5 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J5 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K5 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L5</f>
         <v>3046</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1951,8 +2065,14 @@
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C6 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D6 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E6 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F6 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G6 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H6 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I6 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J6 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K6 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L6</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C6 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D6 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E6 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F6 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G6 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H6 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I6 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J6 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K6 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L6</f>
         <v>4083</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1995,8 +2115,14 @@
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C7 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D7 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E7 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F7 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G7 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H7 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I7 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J7 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K7 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L7</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C7 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D7 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E7 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F7 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G7 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H7 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I7 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J7 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K7 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L7</f>
         <v>4829</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2039,8 +2165,14 @@
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C8 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D8 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E8 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F8 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G8 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H8 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I8 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J8 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K8 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L8</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C8 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D8 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E8 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F8 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G8 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H8 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I8 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J8 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K8 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L8</f>
         <v>3534</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2083,8 +2215,14 @@
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C9 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D9 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E9 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F9 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G9 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H9 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I9 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J9 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K9 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L9</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C9 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D9 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E9 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F9 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G9 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H9 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I9 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J9 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K9 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L9</f>
         <v>5874</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2127,8 +2265,14 @@
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C10 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D10 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E10 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F10 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G10 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H10 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I10 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J10 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K10 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L10</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C10 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D10 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E10 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F10 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G10 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H10 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I10 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J10 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K10 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L10</f>
         <v>5049</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2141,7 +2285,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -2153,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
@@ -2171,8 +2315,14 @@
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C11 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D11 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E11 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F11 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G11 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H11 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I11 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J11 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K11 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L11</f>
-        <v>6642</v>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C11 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D11 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E11 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F11 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G11 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H11 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I11 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J11 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K11 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L11</f>
+        <v>7063</v>
+      </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2185,10 +2335,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -2215,8 +2365,14 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C12 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D12 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E12 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F12 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G12 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H12 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I12 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J12 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K12 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L12</f>
-        <v>7737</v>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C12 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D12 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E12 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F12 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G12 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H12 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I12 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J12 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K12 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L12</f>
+        <v>7938</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2270,18 +2426,18 @@
       </c>
       <c r="M14" s="5">
         <f>SUM(M3:M13)</f>
-        <v>45348</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="J15" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L15" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" s="2">
         <f>SUM(M3:M6)</f>
@@ -2290,13 +2446,13 @@
     </row>
     <row r="16" spans="1:15">
       <c r="J16" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M16" s="2">
         <f>SUM(M3:M8)</f>
@@ -2305,13 +2461,13 @@
     </row>
     <row r="17" spans="10:13">
       <c r="J17" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L17" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M17" s="2">
         <f>SUM(M3:M9)</f>
@@ -2320,7 +2476,7 @@
     </row>
     <row r="18" spans="10:13">
       <c r="J18" s="2" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>36</v>
@@ -2330,12 +2486,12 @@
       </c>
       <c r="M18" s="2">
         <f>SUM(M3:M11)</f>
-        <v>37611</v>
+        <v>38032</v>
       </c>
     </row>
     <row r="19" spans="10:13">
       <c r="J19" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>38</v>
@@ -2345,7 +2501,7 @@
       </c>
       <c r="M19" s="2">
         <f>M14</f>
-        <v>45348</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="20" spans="10:13">
@@ -2354,7 +2510,7 @@
       </c>
       <c r="M20">
         <f>SUM(M15:M19)</f>
-        <v>140608</v>
+        <v>141651</v>
       </c>
     </row>
   </sheetData>
@@ -2377,7 +2533,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2937,6 +3093,180 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Document/LevelDesign.xlsx
+++ b/Document/LevelDesign.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
     <sheet name="Level2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Level3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
   <si>
     <t>Level</t>
   </si>
@@ -252,30 +253,9 @@
     <t>12 11 0 11 12 0 21 31</t>
   </si>
   <si>
-    <t>11 12 11 21 0 22 21 0 12 0 22</t>
-  </si>
-  <si>
-    <t>12 21 11 0 12 11 0 22 0 21</t>
-  </si>
-  <si>
     <t xml:space="preserve">21 11 12 0 22 22 0 12 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">21 11 11 0 22 0 22 </t>
-  </si>
-  <si>
-    <t>22 12 0 12 0 22 21 0 22 21</t>
-  </si>
-  <si>
-    <t>12 22 0 21 22 0 12 21 0 22</t>
-  </si>
-  <si>
-    <t>22 22 0 12 21 12 0 21 0 22</t>
-  </si>
-  <si>
-    <t>12 21 12 0 22 21 0 12 21 0 22</t>
-  </si>
-  <si>
     <t>Gun5</t>
   </si>
   <si>
@@ -289,6 +269,93 @@
   </si>
   <si>
     <t>Gun 9</t>
+  </si>
+  <si>
+    <t>Gun10</t>
+  </si>
+  <si>
+    <t>Lần 6</t>
+  </si>
+  <si>
+    <t>11 12 11 21 0 22 21 0 12 31 0 22</t>
+  </si>
+  <si>
+    <t>12 21 11 0 12 11 0 22 0 21 0 31</t>
+  </si>
+  <si>
+    <t>21 11 11 0 22 0 22 31 0</t>
+  </si>
+  <si>
+    <t>22 12 0 12 0 22 21 31 0 22 21 0 31</t>
+  </si>
+  <si>
+    <t>12 22 0 21 22 0 12 21 0 22 0 31</t>
+  </si>
+  <si>
+    <t>22 22 0 31 12 21 0 31 12 0 21 0 22 21</t>
+  </si>
+  <si>
+    <t>12 31 12 0 22 21 31 0 12 21 0 22 0 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 12 0 22 0 31 12 </t>
+  </si>
+  <si>
+    <t>22 12 31 0 22 0 22</t>
+  </si>
+  <si>
+    <t>12 22 31 0 31 0 22</t>
+  </si>
+  <si>
+    <t>31 22 0 12 22 0 12</t>
+  </si>
+  <si>
+    <t>12 31 22 12 0 22 0 13</t>
+  </si>
+  <si>
+    <t>22 12 0 31 0 31 12 22</t>
+  </si>
+  <si>
+    <t>12 13 0 31 12 0 13</t>
+  </si>
+  <si>
+    <t>31 0 12 13 0 31 0 31</t>
+  </si>
+  <si>
+    <t>12 22 31 0 22 12 0 13 0 31 13</t>
+  </si>
+  <si>
+    <t>22 12 0 31 13 0 22 0 13 0 31</t>
+  </si>
+  <si>
+    <t>12 13 0 31 12 0 22 13 0 31 0 31</t>
+  </si>
+  <si>
+    <t>22 22 12 0 31 0 13 0 13 0 31</t>
+  </si>
+  <si>
+    <t>13 13 0 31 0 31 0 32</t>
+  </si>
+  <si>
+    <t>31 0 31 13 0 32 0 13</t>
+  </si>
+  <si>
+    <t>13 22 22 0 31 0 32 0 13 31</t>
+  </si>
+  <si>
+    <t>31 22 0 13 0 32 0 32 13 22</t>
+  </si>
+  <si>
+    <t>13 13 22 0 32 0 32 22 0 31 0 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 0 13 0 22 31 0 13 0 32 13 </t>
+  </si>
+  <si>
+    <t>12 13 22 12 0 32 22 0 31 0 32 0 31 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 22 32 0 31 13 0 31 13 22 32 0 32 0 31 </t>
   </si>
 </sst>
 </file>
@@ -386,8 +453,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -421,7 +496,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -432,6 +507,10 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -442,6 +521,10 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1783,16 +1866,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
+    <col min="14" max="15" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1879,7 +1961,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1928,7 +2010,7 @@
     <row r="4" spans="1:15">
       <c r="A4" s="2">
         <f>A3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <f>B3 +1</f>
@@ -1977,8 +2059,8 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A12" si="0">A4</f>
-        <v>1</v>
+        <f t="shared" ref="A5:A13" si="0">A4</f>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ref="B5:B12" si="1">B4 +1</f>
@@ -2028,7 +2110,7 @@
     <row r="6" spans="1:15">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="1"/>
@@ -2078,7 +2160,7 @@
     <row r="7" spans="1:15">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="1"/>
@@ -2128,7 +2210,7 @@
     <row r="8" spans="1:15">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="1"/>
@@ -2178,7 +2260,7 @@
     <row r="9" spans="1:15">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="1"/>
@@ -2219,16 +2301,16 @@
         <v>5874</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="1"/>
@@ -2269,16 +2351,16 @@
         <v>5049</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="1"/>
@@ -2319,16 +2401,16 @@
         <v>7063</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="1"/>
@@ -2369,15 +2451,16 @@
         <v>7938</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
         <v>11</v>
@@ -2431,7 +2514,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="J15" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>29</v>
@@ -2446,7 +2529,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="J16" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>30</v>
@@ -2461,7 +2544,7 @@
     </row>
     <row r="17" spans="10:13">
       <c r="J17" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>34</v>
@@ -2476,7 +2559,7 @@
     </row>
     <row r="18" spans="10:13">
       <c r="J18" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>36</v>
@@ -2491,7 +2574,7 @@
     </row>
     <row r="19" spans="10:13">
       <c r="J19" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>38</v>
@@ -2505,12 +2588,773 @@
       </c>
     </row>
     <row r="20" spans="10:13">
+      <c r="J20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="10:13">
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <f>SUM(M15:M19)</f>
+        <v>141651</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="14" max="14" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1">
+        <v>51</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C3 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D3 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E3 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F3 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G3 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H3 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I3 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J3 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K3 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L3</f>
+        <v>4766</v>
+      </c>
+      <c r="N3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2">
+        <f>A3</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B3 +1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C4 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D4 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E4 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F4 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G4 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H4 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I4 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J4 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K4 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L4</f>
+        <v>4516</v>
+      </c>
+      <c r="N4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2">
+        <f t="shared" ref="A5:A13" si="0">A4</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B12" si="1">B4 +1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C5 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D5 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E5 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F5 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G5 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H5 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I5 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J5 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K5 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L5</f>
+        <v>5514</v>
+      </c>
+      <c r="N5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C6 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D6 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E6 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F6 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G6 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H6 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I6 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J6 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K6 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L6</f>
+        <v>3590</v>
+      </c>
+      <c r="N6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C7 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D7 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E7 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F7 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G7 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H7 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I7 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J7 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K7 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L7</f>
+        <v>7061</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C8 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D8 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E8 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F8 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G8 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H8 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I8 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J8 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K8 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L8</f>
+        <v>6891</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C9 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D9 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E9 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F9 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G9 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H9 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I9 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J9 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K9 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L9</f>
+        <v>4190</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C10 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D10 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E10 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F10 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G10 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H10 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I10 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J10 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K10 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L10</f>
+        <v>7512</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C11 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D11 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E11 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F11 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G11 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H11 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I11 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J11 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K11 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L11</f>
+        <v>8442</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C12 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D12 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E12 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F12 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G12 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H12 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I12 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J12 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K12 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L12</f>
+        <v>10405</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C13 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D13 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E13 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F13 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G13 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H13 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I13 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J13 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K13 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="K14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="6">
+        <v>10</v>
+      </c>
+      <c r="M14" s="5">
+        <f>SUM(M3:M13)</f>
+        <v>62887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="J15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2">
+        <f>SUM(M3:M6)</f>
+        <v>18386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="J16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="4">
+        <v>7</v>
+      </c>
+      <c r="M16" s="2">
+        <f>SUM(M3:M8)</f>
+        <v>32338</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13">
+      <c r="J17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="4">
+        <v>9</v>
+      </c>
+      <c r="M17" s="2">
+        <f>SUM(M3:M9)</f>
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13">
+      <c r="J18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="4">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2">
+        <f>SUM(M3:M11)</f>
+        <v>52482</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13">
+      <c r="J19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="2">
+        <f>M14</f>
+        <v>62887</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13">
       <c r="L20" t="s">
         <v>40</v>
       </c>
       <c r="M20">
         <f>SUM(M15:M19)</f>
-        <v>141651</v>
+        <v>202621</v>
       </c>
     </row>
   </sheetData>
@@ -2528,7 +3372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -3093,7 +3937,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3102,7 +3945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -3266,7 +4109,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Document/LevelDesign.xlsx
+++ b/Document/LevelDesign.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
     <sheet name="Level2" sheetId="3" r:id="rId2"/>
     <sheet name="Level3" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="Level4" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
   <si>
     <t>Level</t>
   </si>
@@ -356,6 +357,54 @@
   </si>
   <si>
     <t xml:space="preserve">13 22 32 0 31 13 0 31 13 22 32 0 32 0 31 </t>
+  </si>
+  <si>
+    <t>Gun15</t>
+  </si>
+  <si>
+    <t>12 31 22 12 0 22 0 41</t>
+  </si>
+  <si>
+    <t>12 41 0 31 12 0 41</t>
+  </si>
+  <si>
+    <t>31 0 12 41 0 31 0 31</t>
+  </si>
+  <si>
+    <t>12 22 31 0 22 12 0 41 0 31 41</t>
+  </si>
+  <si>
+    <t>22 12 0 31 41 0 22 0 41 0 31</t>
+  </si>
+  <si>
+    <t>12 41 0 31 12 0 22 41 0 31 0 31</t>
+  </si>
+  <si>
+    <t>22 22 12 0 31 0 41 0 41 0 31</t>
+  </si>
+  <si>
+    <t>41 41 0 31 0 31 0 32</t>
+  </si>
+  <si>
+    <t>31 0 31 41 0 32 0 41</t>
+  </si>
+  <si>
+    <t>41 22 22 0 31 0 32 0 41 31</t>
+  </si>
+  <si>
+    <t>31 22 0 41 0 32 0 32 41 22</t>
+  </si>
+  <si>
+    <t>41 41 22 0 32 0 32 22 0 31 0 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 0 41 0 22 31 0 41 0 32 41 </t>
+  </si>
+  <si>
+    <t>12 41 22 12 0 32 22 0 31 0 32 0 31 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 22 32 0 31 41 0 31 41 22 32 0 32 0 31 </t>
   </si>
 </sst>
 </file>
@@ -453,8 +502,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -496,7 +555,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -511,6 +570,11 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -525,6 +589,11 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2615,7 +2684,6 @@
     <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2628,14 +2696,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="14" max="14" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2834,22 +2902,22 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -2859,10 +2927,10 @@
       </c>
       <c r="M5" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C5 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D5 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E5 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F5 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G5 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H5 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I5 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J5 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K5 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L5</f>
-        <v>5514</v>
+        <v>5039</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="O5" t="s">
         <v>95</v>
@@ -2884,7 +2952,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2899,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -2909,13 +2977,13 @@
       </c>
       <c r="M6" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C6 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D6 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E6 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F6 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G6 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H6 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I6 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J6 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K6 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L6</f>
-        <v>3590</v>
+        <v>2165</v>
       </c>
       <c r="N6" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="O6" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2934,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -2949,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -2959,13 +3027,13 @@
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C7 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D7 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E7 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F7 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G7 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H7 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I7 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J7 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K7 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L7</f>
-        <v>7061</v>
+        <v>5161</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2984,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2999,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -3009,13 +3077,13 @@
       </c>
       <c r="M8" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C8 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D8 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E8 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F8 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G8 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H8 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I8 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J8 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K8 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L8</f>
-        <v>6891</v>
+        <v>4991</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -3034,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -3049,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -3059,13 +3127,13 @@
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C9 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D9 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E9 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F9 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G9 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H9 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I9 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J9 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K9 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L9</f>
-        <v>4190</v>
+        <v>2290</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3084,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -3099,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -3109,13 +3177,13 @@
       </c>
       <c r="M10" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C10 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D10 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E10 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F10 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G10 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H10 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I10 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J10 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K10 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L10</f>
-        <v>7512</v>
+        <v>5612</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -3134,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -3149,7 +3217,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3159,13 +3227,13 @@
       </c>
       <c r="M11" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C11 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D11 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E11 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F11 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G11 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H11 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I11 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J11 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K11 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L11</f>
-        <v>8442</v>
+        <v>6067</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -3184,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -3199,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3209,13 +3277,13 @@
       </c>
       <c r="M12" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C12 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D12 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E12 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F12 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G12 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H12 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I12 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J12 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K12 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L12</f>
-        <v>10405</v>
+        <v>8030</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -3270,7 +3338,7 @@
       </c>
       <c r="M14" s="5">
         <f>SUM(M3:M13)</f>
-        <v>62887</v>
+        <v>48637</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -3285,7 +3353,7 @@
       </c>
       <c r="M15" s="2">
         <f>SUM(M3:M6)</f>
-        <v>18386</v>
+        <v>16486</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -3300,7 +3368,7 @@
       </c>
       <c r="M16" s="2">
         <f>SUM(M3:M8)</f>
-        <v>32338</v>
+        <v>26638</v>
       </c>
     </row>
     <row r="17" spans="10:13">
@@ -3315,7 +3383,7 @@
       </c>
       <c r="M17" s="2">
         <f>SUM(M3:M9)</f>
-        <v>36528</v>
+        <v>28928</v>
       </c>
     </row>
     <row r="18" spans="10:13">
@@ -3330,7 +3398,7 @@
       </c>
       <c r="M18" s="2">
         <f>SUM(M3:M11)</f>
-        <v>52482</v>
+        <v>40607</v>
       </c>
     </row>
     <row r="19" spans="10:13">
@@ -3345,7 +3413,7 @@
       </c>
       <c r="M19" s="2">
         <f>M14</f>
-        <v>62887</v>
+        <v>48637</v>
       </c>
     </row>
     <row r="20" spans="10:13">
@@ -3354,7 +3422,756 @@
       </c>
       <c r="M20">
         <f>SUM(M15:M19)</f>
-        <v>202621</v>
+        <v>161296</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="14" max="14" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1">
+        <v>51</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C3 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D3 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E3 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F3 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G3 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H3 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I3 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J3 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K3 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L3</f>
+        <v>4997</v>
+      </c>
+      <c r="N3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2">
+        <f>A3</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B3 +1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C4 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D4 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E4 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F4 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G4 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H4 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I4 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J4 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K4 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2">
+        <f t="shared" ref="A5:A13" si="0">A4</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B12" si="1">B4 +1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C5 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D5 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E5 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F5 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G5 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H5 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I5 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J5 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K5 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C6 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D6 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E6 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F6 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G6 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H6 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I6 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J6 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K6 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C7 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D7 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E7 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F7 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G7 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H7 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I7 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J7 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K7 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C8 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D8 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E8 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F8 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G8 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H8 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I8 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J8 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K8 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C9 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D9 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E9 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F9 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G9 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H9 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I9 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J9 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K9 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C10 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D10 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E10 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F10 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G10 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H10 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I10 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J10 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K10 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C11 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D11 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E11 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F11 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G11 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H11 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I11 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J11 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K11 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L11</f>
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C12 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D12 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E12 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F12 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G12 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H12 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I12 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J12 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K12 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C13 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D13 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E13 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F13 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G13 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H13 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I13 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J13 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K13 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="K14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="6">
+        <v>10</v>
+      </c>
+      <c r="M14" s="5">
+        <f>SUM(M3:M13)</f>
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="J15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2">
+        <f>SUM(M3:M6)</f>
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="J16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="4">
+        <v>7</v>
+      </c>
+      <c r="M16" s="2">
+        <f>SUM(M3:M8)</f>
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13">
+      <c r="J17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="4">
+        <v>9</v>
+      </c>
+      <c r="M17" s="2">
+        <f>SUM(M3:M9)</f>
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13">
+      <c r="J18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="4">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2">
+        <f>SUM(M3:M11)</f>
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13">
+      <c r="J19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="2">
+        <f>M14</f>
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13">
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20">
+        <f>SUM(M15:M19)</f>
+        <v>24985</v>
       </c>
     </row>
   </sheetData>
@@ -3372,7 +4189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -3945,7 +4762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>

--- a/Document/LevelDesign.xlsx
+++ b/Document/LevelDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="131">
   <si>
     <t>Level</t>
   </si>
@@ -311,54 +311,9 @@
     <t>31 22 0 12 22 0 12</t>
   </si>
   <si>
-    <t>12 31 22 12 0 22 0 13</t>
-  </si>
-  <si>
     <t>22 12 0 31 0 31 12 22</t>
   </si>
   <si>
-    <t>12 13 0 31 12 0 13</t>
-  </si>
-  <si>
-    <t>31 0 12 13 0 31 0 31</t>
-  </si>
-  <si>
-    <t>12 22 31 0 22 12 0 13 0 31 13</t>
-  </si>
-  <si>
-    <t>22 12 0 31 13 0 22 0 13 0 31</t>
-  </si>
-  <si>
-    <t>12 13 0 31 12 0 22 13 0 31 0 31</t>
-  </si>
-  <si>
-    <t>22 22 12 0 31 0 13 0 13 0 31</t>
-  </si>
-  <si>
-    <t>13 13 0 31 0 31 0 32</t>
-  </si>
-  <si>
-    <t>31 0 31 13 0 32 0 13</t>
-  </si>
-  <si>
-    <t>13 22 22 0 31 0 32 0 13 31</t>
-  </si>
-  <si>
-    <t>31 22 0 13 0 32 0 32 13 22</t>
-  </si>
-  <si>
-    <t>13 13 22 0 32 0 32 22 0 31 0 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 0 13 0 22 31 0 13 0 32 13 </t>
-  </si>
-  <si>
-    <t>12 13 22 12 0 32 22 0 31 0 32 0 31 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 22 32 0 31 13 0 31 13 22 32 0 32 0 31 </t>
-  </si>
-  <si>
     <t>Gun15</t>
   </si>
   <si>
@@ -405,13 +360,73 @@
   </si>
   <si>
     <t xml:space="preserve">41 22 32 0 31 41 0 31 41 22 32 0 32 0 31 </t>
+  </si>
+  <si>
+    <t>12 22 22 0 32 12 0 22</t>
+  </si>
+  <si>
+    <t>32 0 12 22 0 32 0 32</t>
+  </si>
+  <si>
+    <t>12 12 22 0 41 32 0 32</t>
+  </si>
+  <si>
+    <t>32 22 0 12 12 22 0 41 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 12 22 0 12 22 32 0 42 </t>
+  </si>
+  <si>
+    <t>32 22 0 42 12 22 0 12 32 0 32</t>
+  </si>
+  <si>
+    <t>12 32 12 0 22 22 0 41 0 32</t>
+  </si>
+  <si>
+    <t>41 22 0 12 12 0 22 32</t>
+  </si>
+  <si>
+    <t>41 32 0 12 22 22 0 32 22 41</t>
+  </si>
+  <si>
+    <t>22 12 32 0 41 32 22 0 41 32</t>
+  </si>
+  <si>
+    <t>12 32 0 41 22 0 32 0 13</t>
+  </si>
+  <si>
+    <t>41 12 22 0 22 32 0 32 22</t>
+  </si>
+  <si>
+    <t>22 12 12 0 32 41 0 22 0 13 41 0 32</t>
+  </si>
+  <si>
+    <t>13 12 22 12 0 32 22 0 32 22 0 32</t>
+  </si>
+  <si>
+    <t>12 13 0 32 32 22 0 41 22 0 32 22</t>
+  </si>
+  <si>
+    <t>41 32 12 0 22 22 22 0 32 32 0 13</t>
+  </si>
+  <si>
+    <t>41 13 22 0 32 22 22 0 41 32 0 13</t>
+  </si>
+  <si>
+    <t>32 22 22 22 0 41 32 0 32 13 0 13</t>
+  </si>
+  <si>
+    <t>22 22 22 41 0 32 32 0 13 13 0 41 0 13 22</t>
+  </si>
+  <si>
+    <t>41 32 22 0 32 22 22 13 0 0 41 13 0 22 32 32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -438,6 +453,12 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -543,7 +564,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -554,6 +575,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2696,7 +2726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2930,10 +2960,10 @@
         <v>5039</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="O5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2980,10 +3010,10 @@
         <v>2165</v>
       </c>
       <c r="N6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="O6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3030,10 +3060,10 @@
         <v>5161</v>
       </c>
       <c r="N7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -3080,10 +3110,10 @@
         <v>4991</v>
       </c>
       <c r="N8" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -3130,10 +3160,10 @@
         <v>2290</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3180,10 +3210,10 @@
         <v>5612</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -3230,10 +3260,10 @@
         <v>6067</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -3280,10 +3310,10 @@
         <v>8030</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -3432,7 +3462,6 @@
     <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3445,734 +3474,818 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="14" max="14" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:15" ht="23">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="1">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" ht="23">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="9">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="9">
         <v>13</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="9">
         <v>21</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="9">
         <v>22</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="9">
         <v>31</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="9">
         <v>32</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="9">
         <v>41</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="9">
         <v>42</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="9">
         <v>51</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="2">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:15" ht="23">
+      <c r="A3" s="11">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>4</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C3 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D3 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E3 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F3 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G3 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H3 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I3 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J3 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K3 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L3</f>
-        <v>4997</v>
-      </c>
-      <c r="N3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2">
+        <v>6465</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="23">
+      <c r="A4" s="11">
         <f>A3</f>
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="11">
         <f>B3 +1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>4</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C4 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D4 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E4 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F4 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G4 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H4 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I4 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J4 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K4 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L4</f>
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="2">
+        <v>7112</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="23">
+      <c r="A5" s="11">
         <f t="shared" ref="A5:A13" si="0">A4</f>
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="11">
         <f t="shared" ref="B5:B12" si="1">B4 +1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>4</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C5 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D5 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E5 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F5 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G5 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H5 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I5 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J5 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K5 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L5</f>
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2">
+        <v>7236</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="23">
+      <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3</v>
+      </c>
+      <c r="J6" s="11">
+        <v>2</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C6 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D6 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E6 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F6 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G6 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H6 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I6 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J6 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K6 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L6</f>
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2">
+        <v>6513</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="23">
+      <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>4</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C7 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D7 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E7 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F7 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G7 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H7 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I7 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J7 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K7 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L7</f>
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="2">
+        <v>7879</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="23">
+      <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>4</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>4</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C8 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D8 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E8 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F8 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G8 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H8 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I8 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J8 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K8 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="2">
+        <v>6913</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="23">
+      <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="11">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>5</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>5</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C9 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D9 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E9 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F9 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G9 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H9 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I9 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J9 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K9 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L9</f>
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2">
+        <v>9627</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="23">
+      <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>6</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>6</v>
+      </c>
+      <c r="J10" s="11">
+        <v>2</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C10 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D10 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E10 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F10 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G10 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H10 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I10 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J10 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K10 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L10</f>
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2">
+        <v>10146</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="23">
+      <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>6</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>5</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C11 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D11 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E11 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F11 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G11 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H11 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I11 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J11 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K11 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L11</f>
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="2">
+        <v>10071</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="23">
+      <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>8</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>6</v>
+      </c>
+      <c r="J12" s="11">
+        <v>4</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C12 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D12 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E12 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F12 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G12 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H12 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I12 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J12 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K12 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L12</f>
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="2">
+        <v>12829</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="23">
+      <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
         <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C13 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D13 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E13 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F13 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G13 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H13 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I13 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J13 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K13 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="K14" s="5" t="s">
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" ht="23">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="13">
         <v>10</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="12">
         <f>SUM(M3:M13)</f>
-        <v>4997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="J15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K15" s="2" t="s">
+        <v>84791</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" ht="23">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="14">
         <v>5</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="11">
         <f>SUM(M3:M6)</f>
-        <v>4997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="J16" s="2" t="s">
+        <v>27326</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" ht="23">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="14">
         <v>7</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="11">
         <f>SUM(M3:M8)</f>
-        <v>4997</v>
-      </c>
-    </row>
-    <row r="17" spans="10:13">
-      <c r="J17" s="2" t="s">
+        <v>42118</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" ht="23">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="14">
         <v>9</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="11">
         <f>SUM(M3:M9)</f>
-        <v>4997</v>
-      </c>
-    </row>
-    <row r="18" spans="10:13">
-      <c r="J18" s="2" t="s">
+        <v>51745</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" ht="23">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="14">
         <v>9</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="11">
         <f>SUM(M3:M11)</f>
-        <v>4997</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13">
-      <c r="J19" s="2" t="s">
+        <v>71962</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" ht="23">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="11">
         <f>M14</f>
-        <v>4997</v>
-      </c>
-    </row>
-    <row r="20" spans="10:13">
-      <c r="L20" t="s">
+        <v>84791</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" ht="23">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="10">
         <f>SUM(M15:M19)</f>
-        <v>24985</v>
-      </c>
+        <v>277942</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Document/LevelDesign.xlsx
+++ b/Document/LevelDesign.xlsx
@@ -4,19 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
     <sheet name="Level2" sheetId="3" r:id="rId2"/>
     <sheet name="Level3" sheetId="5" r:id="rId3"/>
     <sheet name="Level4" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Level5" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="138">
   <si>
     <t>Level</t>
   </si>
@@ -71,48 +68,9 @@
     <t>EmemyID</t>
   </si>
   <si>
-    <t>!EnemyType</t>
-  </si>
-  <si>
-    <t>!EnemyLevel</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>FireRate</t>
-  </si>
-  <si>
-    <t>Vellocity</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Tank3</t>
-  </si>
-  <si>
-    <t>Tele3</t>
-  </si>
-  <si>
-    <t>Fly3</t>
-  </si>
-  <si>
-    <t>Boss1</t>
-  </si>
-  <si>
     <t>Tổng</t>
   </si>
   <si>
@@ -420,13 +378,73 @@
   </si>
   <si>
     <t>41 32 22 0 32 22 22 13 0 0 41 13 0 22 32 32</t>
+  </si>
+  <si>
+    <t>13 0 22 22 0 32 32</t>
+  </si>
+  <si>
+    <t>32 22 0 13 22 0 32</t>
+  </si>
+  <si>
+    <t>41 32 22 0 13 22 0 41 0 32</t>
+  </si>
+  <si>
+    <t>13 22 0 32 0 32 22</t>
+  </si>
+  <si>
+    <t>13 41 0 32 32 0 13 0 22</t>
+  </si>
+  <si>
+    <t>22 22 13 0 32 22 0 32 0 42</t>
+  </si>
+  <si>
+    <t>13 32 41 0 22 22 0 32</t>
+  </si>
+  <si>
+    <t>41 32 0 13 0 32 0 42</t>
+  </si>
+  <si>
+    <t>32 22 41 0 22 13 13 0 32 42</t>
+  </si>
+  <si>
+    <t>13 0 13 22 42 0 32 22 0 13 32</t>
+  </si>
+  <si>
+    <t>41 22 0 32 22 0 42 0 42</t>
+  </si>
+  <si>
+    <t>13 22 41 0 32 22 0 42</t>
+  </si>
+  <si>
+    <t>42 32 22 0 41 32 0 13 0 42</t>
+  </si>
+  <si>
+    <t>41 22 0 42 13 0 13 32 0 13 32</t>
+  </si>
+  <si>
+    <t>32 32 0 13 42 0 32 41 0 13 42</t>
+  </si>
+  <si>
+    <t>13 41 32 0 42 32 0 42 32 0 13 13</t>
+  </si>
+  <si>
+    <t>13 22 42 0 22 32 41 0 32 42 0 13 0 13</t>
+  </si>
+  <si>
+    <t>32 0 32 41 13 0 42 32 0 32 0 41 13 13</t>
+  </si>
+  <si>
+    <t>22 22 13 41 0 32 13 42 0 13 41 42 32 32</t>
+  </si>
+  <si>
+    <t>42 13 32 0 22 32 22 0 41 13 0 41 13 32 42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,6 +475,12 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -523,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -563,8 +587,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -572,20 +602,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -605,6 +644,9 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -624,278 +666,14 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="GunLevel"/>
-      <sheetName val="HeroLevel"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Run</v>
-          </cell>
-          <cell r="C2">
-            <v>1</v>
-          </cell>
-          <cell r="D2">
-            <v>1.75</v>
-          </cell>
-          <cell r="E2">
-            <v>3</v>
-          </cell>
-          <cell r="F2">
-            <v>0.7</v>
-          </cell>
-          <cell r="G2">
-            <v>5.25</v>
-          </cell>
-          <cell r="H2">
-            <v>3.5</v>
-          </cell>
-          <cell r="I2">
-            <v>5</v>
-          </cell>
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Tank</v>
-          </cell>
-          <cell r="C3">
-            <v>3</v>
-          </cell>
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-          <cell r="E3">
-            <v>1</v>
-          </cell>
-          <cell r="F3">
-            <v>0.5</v>
-          </cell>
-          <cell r="G3">
-            <v>1</v>
-          </cell>
-          <cell r="H3">
-            <v>3.5</v>
-          </cell>
-          <cell r="I3">
-            <v>7</v>
-          </cell>
-          <cell r="J3">
-            <v>1.8</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Tele</v>
-          </cell>
-          <cell r="C4">
-            <v>1.5</v>
-          </cell>
-          <cell r="D4">
-            <v>1.5</v>
-          </cell>
-          <cell r="E4">
-            <v>2</v>
-          </cell>
-          <cell r="F4">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="G4">
-            <v>3</v>
-          </cell>
-          <cell r="H4">
-            <v>3.5</v>
-          </cell>
-          <cell r="I4">
-            <v>6</v>
-          </cell>
-          <cell r="J4">
-            <v>1.5</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Fly</v>
-          </cell>
-          <cell r="C5">
-            <v>0.9</v>
-          </cell>
-          <cell r="D5">
-            <v>2</v>
-          </cell>
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-          <cell r="F5">
-            <v>0.88</v>
-          </cell>
-          <cell r="G5">
-            <v>2</v>
-          </cell>
-          <cell r="H5">
-            <v>3.5</v>
-          </cell>
-          <cell r="I5">
-            <v>4</v>
-          </cell>
-          <cell r="J5">
-            <v>1.25</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EnemyLevel</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>HP</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>!Lượng Đạn Để tiêu diệt Enemy</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>!GunLevel</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>!GunDamage</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Damage</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>255</v>
-          </cell>
-          <cell r="C2">
-            <v>3</v>
-          </cell>
-          <cell r="D2">
-            <v>3</v>
-          </cell>
-          <cell r="E2">
-            <v>85</v>
-          </cell>
-          <cell r="F2">
-            <v>90</v>
-          </cell>
-          <cell r="G2">
-            <v>10</v>
-          </cell>
-          <cell r="H2">
-            <v>3</v>
-          </cell>
-          <cell r="I2">
-            <v>900</v>
-          </cell>
-          <cell r="J2">
-            <v>99</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>724.5</v>
-          </cell>
-          <cell r="C3">
-            <v>4.5</v>
-          </cell>
-          <cell r="D3">
-            <v>7</v>
-          </cell>
-          <cell r="E3">
-            <v>161</v>
-          </cell>
-          <cell r="F3">
-            <v>140</v>
-          </cell>
-          <cell r="G3">
-            <v>15</v>
-          </cell>
-          <cell r="H3">
-            <v>10</v>
-          </cell>
-          <cell r="I3">
-            <v>2100</v>
-          </cell>
-          <cell r="J3">
-            <v>399</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>1944</v>
-          </cell>
-          <cell r="C4">
-            <v>6</v>
-          </cell>
-          <cell r="D4">
-            <v>12</v>
-          </cell>
-          <cell r="E4">
-            <v>324</v>
-          </cell>
-          <cell r="F4">
-            <v>220</v>
-          </cell>
-          <cell r="G4">
-            <v>20</v>
-          </cell>
-          <cell r="H4">
-            <v>17</v>
-          </cell>
-          <cell r="I4">
-            <v>4400</v>
-          </cell>
-          <cell r="J4">
-            <v>599</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1223,7 +1001,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M12"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1233,10 +1011,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1269,13 +1047,13 @@
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1">
         <v>11</v>
       </c>
@@ -1306,12 +1084,12 @@
       <c r="L2" s="1">
         <v>51</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="19"/>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1354,10 +1132,10 @@
         <v>792</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1404,10 +1182,10 @@
         <v>990</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1451,13 +1229,13 @@
       </c>
       <c r="M5" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C5 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D5 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E5 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F5 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G5 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H5 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I5 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J5 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K5 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L5</f>
-        <v>1590</v>
+        <v>2590</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1501,13 +1279,13 @@
       </c>
       <c r="M6" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C6 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D6 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E6 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F6 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G6 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H6 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I6 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J6 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K6 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L6</f>
-        <v>1890</v>
+        <v>3390</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1551,13 +1329,13 @@
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C7 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D7 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E7 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F7 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G7 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H7 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I7 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J7 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K7 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L7</f>
-        <v>1890</v>
+        <v>3390</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1601,13 +1379,13 @@
       </c>
       <c r="M8" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C8 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D8 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E8 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F8 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G8 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H8 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I8 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J8 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K8 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L8</f>
-        <v>1491</v>
+        <v>2491</v>
       </c>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1651,13 +1429,13 @@
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C9 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D9 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E9 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F9 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G9 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H9 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I9 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J9 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K9 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L9</f>
-        <v>2048</v>
+        <v>3588</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1701,13 +1479,13 @@
       </c>
       <c r="M10" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C10 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D10 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E10 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F10 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G10 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H10 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I10 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J10 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K10 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L10</f>
-        <v>2305</v>
+        <v>3885</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1751,13 +1529,13 @@
       </c>
       <c r="M11" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C11 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D11 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E11 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F11 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G11 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H11 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I11 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J11 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K11 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L11</f>
-        <v>2546</v>
+        <v>4586</v>
       </c>
       <c r="N11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1801,13 +1579,13 @@
       </c>
       <c r="M12" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C12 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D12 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E12 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F12 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G12 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H12 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I12 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J12 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K12 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L12</f>
-        <v>2447</v>
+        <v>4487</v>
       </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1848,104 +1626,104 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C13 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D13 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E13 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F13 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G13 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H13 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I13 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J13 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K13 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L13</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C13 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D13 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E13 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F13 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G13 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H13 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I13 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J13 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K13 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="K14" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L14" s="6">
         <v>10</v>
       </c>
       <c r="M14" s="5">
         <f>SUM(M3:M13)</f>
-        <v>17989</v>
+        <v>30189</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="J15" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="L15" s="4">
         <v>4</v>
       </c>
       <c r="M15" s="2">
         <f>SUM(M3:M6)</f>
-        <v>5262</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="J16" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L16" s="4">
         <v>5</v>
       </c>
       <c r="M16" s="2">
         <f>SUM(M3:M8)</f>
-        <v>8643</v>
+        <v>13643</v>
       </c>
     </row>
     <row r="17" spans="10:13">
       <c r="J17" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L17" s="4">
         <v>7</v>
       </c>
       <c r="M17" s="2">
         <f>SUM(M3:M9)</f>
-        <v>10691</v>
+        <v>17231</v>
       </c>
     </row>
     <row r="18" spans="10:13">
       <c r="J18" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L18" s="4">
         <v>9</v>
       </c>
       <c r="M18" s="2">
         <f>SUM(M3:M11)</f>
-        <v>15542</v>
+        <v>25702</v>
       </c>
     </row>
     <row r="19" spans="10:13">
       <c r="J19" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M19" s="2">
         <f>M14</f>
-        <v>17989</v>
+        <v>30189</v>
       </c>
     </row>
     <row r="20" spans="10:13">
       <c r="L20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M20">
         <f>SUM(M15:M19)</f>
-        <v>58127</v>
+        <v>94527</v>
       </c>
     </row>
   </sheetData>
@@ -1967,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1977,10 +1755,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2013,13 +1791,13 @@
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1">
         <v>11</v>
       </c>
@@ -2050,12 +1828,12 @@
       <c r="L2" s="1">
         <v>51</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="19"/>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2097,13 +1875,13 @@
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C3 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D3 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E3 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F3 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G3 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H3 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I3 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J3 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K3 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L3</f>
-        <v>2127</v>
+        <v>3687</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2147,13 +1925,13 @@
       </c>
       <c r="M4" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C4 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D4 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E4 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F4 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G4 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H4 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I4 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J4 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K4 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L4</f>
-        <v>2427</v>
+        <v>4487</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2197,13 +1975,13 @@
       </c>
       <c r="M5" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C5 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D5 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E5 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F5 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G5 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H5 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I5 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J5 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K5 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L5</f>
-        <v>3046</v>
+        <v>6186</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2247,13 +2025,13 @@
       </c>
       <c r="M6" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C6 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D6 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E6 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F6 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G6 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H6 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I6 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J6 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K6 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L6</f>
-        <v>4083</v>
+        <v>8883</v>
       </c>
       <c r="N6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2297,13 +2075,13 @@
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C7 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D7 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E7 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F7 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G7 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H7 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I7 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J7 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K7 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L7</f>
-        <v>4829</v>
+        <v>10119</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2347,13 +2125,13 @@
       </c>
       <c r="M8" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C8 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D8 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E8 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F8 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G8 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H8 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I8 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J8 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K8 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L8</f>
-        <v>3534</v>
+        <v>7224</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2397,13 +2175,13 @@
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C9 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D9 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E9 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F9 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G9 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H9 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I9 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J9 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K9 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L9</f>
-        <v>5874</v>
+        <v>12254</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2447,13 +2225,13 @@
       </c>
       <c r="M10" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C10 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D10 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E10 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F10 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G10 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H10 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I10 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J10 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K10 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L10</f>
-        <v>5049</v>
+        <v>10919</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2497,13 +2275,13 @@
       </c>
       <c r="M11" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C11 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D11 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E11 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F11 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G11 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H11 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I11 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J11 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K11 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L11</f>
-        <v>7063</v>
+        <v>15593</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2547,13 +2325,13 @@
       </c>
       <c r="M12" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C12 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D12 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E12 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F12 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G12 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H12 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I12 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J12 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K12 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L12</f>
-        <v>7938</v>
+        <v>16968</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2595,116 +2373,116 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C13 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D13 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E13 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F13 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G13 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H13 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I13 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J13 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K13 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L13</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C13 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D13 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E13 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F13 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G13 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H13 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I13 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J13 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K13 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="K14" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L14" s="6">
         <v>10</v>
       </c>
       <c r="M14" s="5">
         <f>SUM(M3:M13)</f>
-        <v>45970</v>
+        <v>96320</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="J15" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="L15" s="4">
         <v>5</v>
       </c>
       <c r="M15" s="2">
         <f>SUM(M3:M6)</f>
-        <v>11683</v>
+        <v>23243</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="J16" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L16" s="4">
         <v>7</v>
       </c>
       <c r="M16" s="2">
         <f>SUM(M3:M8)</f>
-        <v>20046</v>
+        <v>40586</v>
       </c>
     </row>
     <row r="17" spans="10:13">
       <c r="J17" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L17" s="4">
         <v>9</v>
       </c>
       <c r="M17" s="2">
         <f>SUM(M3:M9)</f>
-        <v>25920</v>
+        <v>52840</v>
       </c>
     </row>
     <row r="18" spans="10:13">
       <c r="J18" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L18" s="4">
         <v>9</v>
       </c>
       <c r="M18" s="2">
         <f>SUM(M3:M11)</f>
-        <v>38032</v>
+        <v>79352</v>
       </c>
     </row>
     <row r="19" spans="10:13">
       <c r="J19" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M19" s="2">
         <f>M14</f>
-        <v>45970</v>
+        <v>96320</v>
       </c>
     </row>
     <row r="20" spans="10:13">
       <c r="J20" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="10:13">
       <c r="L21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M21">
         <f>SUM(M15:M19)</f>
-        <v>141651</v>
+        <v>292341</v>
       </c>
     </row>
   </sheetData>
@@ -2727,7 +2505,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="M12" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2737,10 +2515,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2773,13 +2551,13 @@
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1">
         <v>11</v>
       </c>
@@ -2810,12 +2588,12 @@
       <c r="L2" s="1">
         <v>51</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="19"/>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2857,13 +2635,13 @@
       </c>
       <c r="M3" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C3 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D3 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E3 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F3 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G3 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H3 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I3 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J3 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K3 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L3</f>
-        <v>4766</v>
+        <v>11066</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2907,13 +2685,13 @@
       </c>
       <c r="M4" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C4 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D4 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E4 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F4 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G4 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H4 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I4 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J4 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K4 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L4</f>
-        <v>4516</v>
+        <v>10306</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2957,13 +2735,13 @@
       </c>
       <c r="M5" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C5 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D5 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E5 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F5 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G5 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H5 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I5 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J5 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K5 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L5</f>
-        <v>5039</v>
+        <v>11363</v>
       </c>
       <c r="N5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3007,13 +2785,13 @@
       </c>
       <c r="M6" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C6 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D6 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E6 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F6 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G6 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H6 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I6 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J6 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K6 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L6</f>
-        <v>2165</v>
+        <v>3727</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3057,13 +2835,13 @@
       </c>
       <c r="M7" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C7 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D7 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E7 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F7 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G7 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H7 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I7 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J7 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K7 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L7</f>
-        <v>5161</v>
+        <v>11077</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -3107,13 +2885,13 @@
       </c>
       <c r="M8" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C8 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D8 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E8 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F8 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G8 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H8 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I8 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J8 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K8 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L8</f>
-        <v>4991</v>
+        <v>10317</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -3157,13 +2935,13 @@
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C9 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D9 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E9 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F9 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G9 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H9 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I9 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J9 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K9 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L9</f>
-        <v>2290</v>
+        <v>3706</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3207,13 +2985,13 @@
       </c>
       <c r="M10" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C10 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D10 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E10 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F10 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G10 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H10 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I10 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J10 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K10 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L10</f>
-        <v>5612</v>
+        <v>12018</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -3257,13 +3035,13 @@
       </c>
       <c r="M11" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C11 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D11 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E11 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F11 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G11 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H11 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I11 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J11 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K11 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L11</f>
-        <v>6067</v>
+        <v>12757</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -3307,13 +3085,13 @@
       </c>
       <c r="M12" s="2">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C12 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D12 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E12 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F12 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G12 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H12 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I12 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J12 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K12 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L12</f>
-        <v>8030</v>
+        <v>16770</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -3355,104 +3133,104 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C13 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D13 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E13 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F13 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G13 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H13 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I13 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J13 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K13 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L13</f>
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C13 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D13 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E13 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F13 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G13 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H13 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I13 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J13 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K13 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="K14" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L14" s="6">
         <v>10</v>
       </c>
       <c r="M14" s="5">
         <f>SUM(M3:M13)</f>
-        <v>48637</v>
+        <v>103107</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="J15" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="L15" s="4">
         <v>5</v>
       </c>
       <c r="M15" s="2">
         <f>SUM(M3:M6)</f>
-        <v>16486</v>
+        <v>36462</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="J16" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L16" s="4">
         <v>7</v>
       </c>
       <c r="M16" s="2">
         <f>SUM(M3:M8)</f>
-        <v>26638</v>
+        <v>57856</v>
       </c>
     </row>
     <row r="17" spans="10:13">
       <c r="J17" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L17" s="4">
         <v>9</v>
       </c>
       <c r="M17" s="2">
         <f>SUM(M3:M9)</f>
-        <v>28928</v>
+        <v>61562</v>
       </c>
     </row>
     <row r="18" spans="10:13">
       <c r="J18" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L18" s="4">
         <v>9</v>
       </c>
       <c r="M18" s="2">
         <f>SUM(M3:M11)</f>
-        <v>40607</v>
+        <v>86337</v>
       </c>
     </row>
     <row r="19" spans="10:13">
       <c r="J19" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M19" s="2">
         <f>M14</f>
-        <v>48637</v>
+        <v>103107</v>
       </c>
     </row>
     <row r="20" spans="10:13">
       <c r="L20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M20">
         <f>SUM(M15:M19)</f>
-        <v>161296</v>
+        <v>345324</v>
       </c>
     </row>
   </sheetData>
@@ -3474,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3485,807 +3263,807 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="23">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="7">
         <v>11</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>12</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>13</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>21</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>22</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <v>31</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <v>32</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <v>41</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="7">
         <v>42</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="7">
         <v>51</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>42</v>
+      <c r="M2" s="20"/>
+      <c r="N2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23">
-      <c r="A3" s="11">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="A3" s="9">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>3</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>4</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>4</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>4</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C3 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D3 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E3 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F3 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G3 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H3 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I3 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J3 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K3 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L3</f>
-        <v>6465</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>112</v>
+        <v>14925</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="23">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <f>A3</f>
         <v>4</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <f>B3 +1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>4</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>4</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>4</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C4 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D4 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E4 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F4 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G4 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H4 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I4 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J4 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K4 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L4</f>
-        <v>7112</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>114</v>
+        <v>16140</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="23">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <f t="shared" ref="A5:A13" si="0">A4</f>
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <f t="shared" ref="B5:B12" si="1">B4 +1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>4</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>4</v>
-      </c>
-      <c r="J5" s="11">
-        <v>3</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C5 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D5 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E5 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F5 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G5 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H5 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I5 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J5 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K5 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L5</f>
-        <v>7236</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>116</v>
+        <v>16298</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="23">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>4</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>3</v>
-      </c>
-      <c r="J6" s="11">
-        <v>2</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C6 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D6 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E6 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F6 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G6 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H6 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I6 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J6 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K6 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L6</f>
-        <v>6513</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>118</v>
+        <v>14881</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="23">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
         <v>5</v>
       </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
         <v>5</v>
       </c>
-      <c r="J7" s="11">
-        <v>4</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
+      <c r="J7" s="9">
+        <v>4</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C7 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D7 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E7 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F7 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G7 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H7 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I7 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J7 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K7 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L7</f>
-        <v>7879</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>120</v>
+        <v>17715</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="23">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>2</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>4</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>4</v>
-      </c>
-      <c r="J8" s="11">
-        <v>2</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>4</v>
+      </c>
+      <c r="J8" s="9">
+        <v>2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C8 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D8 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E8 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F8 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G8 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H8 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I8 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J8 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K8 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L8</f>
-        <v>6913</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>122</v>
+        <v>16841</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="23">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>4</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
         <v>5</v>
       </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
         <v>5</v>
       </c>
-      <c r="J9" s="11">
-        <v>2</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
+      <c r="J9" s="9">
+        <v>2</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C9 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D9 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E9 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F9 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G9 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H9 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I9 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J9 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K9 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L9</f>
-        <v>9627</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>124</v>
+        <v>24195</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="23">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11">
-        <v>2</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
         <v>6</v>
       </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
         <v>6</v>
       </c>
-      <c r="J10" s="11">
-        <v>2</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
+      <c r="J10" s="9">
+        <v>2</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C10 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D10 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E10 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F10 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G10 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H10 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I10 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J10 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K10 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L10</f>
-        <v>10146</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>126</v>
+        <v>25454</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="23">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>4</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
         <v>6</v>
       </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
         <v>5</v>
       </c>
-      <c r="J11" s="11">
-        <v>3</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
+      <c r="J11" s="9">
+        <v>3</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C11 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D11 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E11 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F11 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G11 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H11 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I11 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J11 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K11 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L11</f>
-        <v>10071</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>128</v>
+        <v>27553</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="23">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
         <v>5</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
         <v>8</v>
       </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
         <v>6</v>
       </c>
-      <c r="J12" s="11">
-        <v>4</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
+      <c r="J12" s="9">
+        <v>4</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
         <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C12 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D12 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E12 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F12 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G12 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H12 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I12 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J12 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K12 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L12</f>
-        <v>12829</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>130</v>
+        <v>35065</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="23">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <f>VLOOKUP(C$2, Sheet2!A$3:I$14,9) * C13 + VLOOKUP(D$2, Sheet2!A$3:I$14,9) * D13 + VLOOKUP(E$2, Sheet2!A$3:I$14,9) * E13 + VLOOKUP(F$2, Sheet2!A$3:I$14,9) * F13 + VLOOKUP(G$2, Sheet2!A$3:I$14,9) * G13 + VLOOKUP(H$2, Sheet2!A$3:I$14,9) * H13 + VLOOKUP(I$2, Sheet2!A$3:I$14,9) * I13 + VLOOKUP(J$2, Sheet2!A$3:I$14,9) *J13 + VLOOKUP(K$2, Sheet2!A$3:I$14,9) * K13 + VLOOKUP(L$2, Sheet2!A$3:I$14,9) * L13</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C13 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D13 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E13 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F13 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G13 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H13 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I13 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J13 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K13 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L13</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="23">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="13">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="11">
         <v>10</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="10">
         <f>SUM(M3:M13)</f>
-        <v>84791</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+        <v>209067</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15" ht="23">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="14">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="12">
         <v>5</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="9">
         <f>SUM(M3:M6)</f>
-        <v>27326</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+        <v>62244</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="23">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="14">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="12">
         <v>7</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="9">
         <f>SUM(M3:M8)</f>
-        <v>42118</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+        <v>96800</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="1:15" ht="23">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" s="14">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="12">
         <v>9</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="9">
         <f>SUM(M3:M9)</f>
-        <v>51745</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+        <v>120995</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="1:15" ht="23">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="14">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="12">
         <v>9</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="9">
         <f>SUM(M3:M11)</f>
-        <v>71962</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+        <v>174002</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" spans="1:15" ht="23">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="11">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="9">
         <f>M14</f>
-        <v>84791</v>
-      </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+        <v>209067</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:15" ht="23">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="10">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="8">
         <f>SUM(M15:M19)</f>
-        <v>277942</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+        <v>663108</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4304,568 +4082,829 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" ht="20">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" ht="20">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="13">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13">
+        <v>12</v>
+      </c>
+      <c r="E2" s="13">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="F2" s="13">
+        <v>21</v>
+      </c>
+      <c r="G2" s="13">
+        <v>22</v>
+      </c>
+      <c r="H2" s="13">
+        <v>31</v>
+      </c>
+      <c r="I2" s="13">
+        <v>32</v>
+      </c>
+      <c r="J2" s="13">
+        <v>41</v>
+      </c>
+      <c r="K2" s="13">
+        <v>42</v>
+      </c>
+      <c r="L2" s="13">
+        <v>51</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20">
+      <c r="A3" s="15">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>4</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>4</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C3 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D3 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E3 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F3 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G3 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H3 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I3 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J3 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K3 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L3</f>
+        <v>17226</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20">
+      <c r="A4" s="15">
+        <f>A3</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="15">
+        <f>B3 +1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>4</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>4</v>
+      </c>
+      <c r="J4" s="15">
+        <v>2</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C4 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D4 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E4 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F4 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G4 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H4 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I4 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J4 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K4 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L4</f>
+        <v>17542</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20">
+      <c r="A5" s="15">
+        <f t="shared" ref="A5:A13" si="0">A4</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <f t="shared" ref="B5:B12" si="1">B4 +1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>4</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>4</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C5 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D5 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E5 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F5 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G5 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H5 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I5 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J5 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K5 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L5</f>
+        <v>21321</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20">
+      <c r="A6" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>4</v>
+      </c>
+      <c r="J6" s="15">
+        <v>2</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C6 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D6 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E6 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F6 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G6 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H6 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I6 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J6 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K6 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L6</f>
+        <v>15384</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20">
+      <c r="A7" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>4</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>4</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15">
+        <v>2</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C7 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D7 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E7 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F7 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G7 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H7 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I7 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J7 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K7 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L7</f>
+        <v>27757</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20">
+      <c r="A8" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>3</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>3</v>
+      </c>
+      <c r="J8" s="15">
+        <v>2</v>
+      </c>
+      <c r="K8" s="15">
+        <v>3</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C8 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D8 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E8 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F8 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G8 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H8 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I8 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J8 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K8 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L8</f>
+        <v>16300</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20">
+      <c r="A9" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>2</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>4</v>
+      </c>
+      <c r="J9" s="15">
+        <v>2</v>
+      </c>
+      <c r="K9" s="15">
+        <v>3</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C9 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D9 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E9 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F9 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G9 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H9 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I9 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J9 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K9 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L9</f>
+        <v>23258</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20">
+      <c r="A10" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>6</v>
+      </c>
+      <c r="J10" s="15">
+        <v>2</v>
+      </c>
+      <c r="K10" s="15">
+        <v>4</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C10 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D10 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E10 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F10 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G10 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H10 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I10 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J10 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K10 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L10</f>
+        <v>26117</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20">
+      <c r="A11" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>6</v>
+      </c>
+      <c r="F11" s="15">
+        <v>2</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>6</v>
+      </c>
+      <c r="J11" s="15">
+        <v>3</v>
+      </c>
+      <c r="K11" s="15">
+        <v>3</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C11 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D11 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E11 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F11 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G11 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H11 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I11 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J11 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K11 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L11</f>
+        <v>27732</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20">
+      <c r="A12" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>6</v>
+      </c>
+      <c r="F12" s="15">
+        <v>4</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>6</v>
+      </c>
+      <c r="J12" s="15">
+        <v>4</v>
+      </c>
+      <c r="K12" s="15">
+        <v>4</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C12 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D12 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E12 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F12 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G12 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H12 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I12 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J12 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K12 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L12</f>
+        <v>29724</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20">
+      <c r="A13" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="15">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15">
+        <f>VLOOKUP(C$2,Sheet1!A$3:B$19, 2) * C13 + VLOOKUP(D$2, Sheet1!A$3:B$19,2) * D13 + VLOOKUP(E$2, Sheet1!A$3:B$19,2) * E13 + VLOOKUP(F$2, Sheet1!A$3:B$19,2) * F13 + VLOOKUP(G$2, Sheet1!A$3:B$19,2) * G13 + VLOOKUP(H$2, Sheet1!A$3:B$19,2) * H13 + VLOOKUP(I$2, Sheet1!A$3:B$19,2) * I13 + VLOOKUP(J$2, Sheet1!A$3:B$19,2) *J13 + VLOOKUP(K$2, Sheet1!A$3:B$19,2) * K13 + VLOOKUP(L$2, Sheet1!A$3:B$19,2) * L13</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" ht="20">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="L14" s="17">
+        <v>10</v>
+      </c>
+      <c r="M14" s="16">
+        <f>SUM(M3:M13)</f>
+        <v>222361</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" ht="20">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L15" s="18">
+        <v>5</v>
+      </c>
+      <c r="M15" s="15">
+        <f>SUM(M3:M6)</f>
+        <v>71473</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" ht="20">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="L16" s="18">
+        <v>7</v>
+      </c>
+      <c r="M16" s="15">
+        <f>SUM(M3:M8)</f>
+        <v>115530</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15" ht="20">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="L17" s="18">
+        <v>9</v>
+      </c>
+      <c r="M17" s="15">
+        <f>SUM(M3:M9)</f>
+        <v>138788</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" ht="20">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <f xml:space="preserve"> VLOOKUP(B3,[1]Sheet2!$A$2:$C$5,3) * VLOOKUP(C3, [1]Sheet3!$A$2:$B$4,2)</f>
-        <v>255</v>
-      </c>
-      <c r="F3" s="2">
-        <f>VLOOKUP(B3, [1]Sheet2!$A$2:$D$5,4) * VLOOKUP(C3, [1]Sheet3!$A$1:$F$4,6)</f>
-        <v>157.5</v>
-      </c>
-      <c r="G3" s="2">
-        <f>VLOOKUP(B3, [1]Sheet2!$A$2:$E$5, 5)</f>
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <f>VLOOKUP(B3, [1]Sheet2!$A$2:$F$5, 6)</f>
-        <v>0.7</v>
-      </c>
-      <c r="I3" s="2">
-        <f>ROUND(VLOOKUP(B3, [1]Sheet2!A$2:J$5,10) * VLOOKUP(C3, [1]Sheet3!A$2:J$4,10), 0)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <f xml:space="preserve"> VLOOKUP(B4,[1]Sheet2!$A$2:$C$5,3) * VLOOKUP(C4, [1]Sheet3!$A$2:$B$4,2)</f>
-        <v>724.5</v>
-      </c>
-      <c r="F4" s="2">
-        <f>VLOOKUP(B4, [1]Sheet2!$A$2:$D$5,4) * VLOOKUP(C4, [1]Sheet3!$A$1:$F$4,6)</f>
-        <v>245</v>
-      </c>
-      <c r="G4" s="2">
-        <f>VLOOKUP(B4, [1]Sheet2!$A$2:$E$5, 5)</f>
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <f>VLOOKUP(B4, [1]Sheet2!$A$2:$F$5, 6)</f>
-        <v>0.7</v>
-      </c>
-      <c r="I4" s="2">
-        <f>ROUND(VLOOKUP(B4, [1]Sheet2!A$2:J$5,10) * VLOOKUP(C4, [1]Sheet3!A$2:J$4,10), 0)</f>
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <f xml:space="preserve"> VLOOKUP(B5,[1]Sheet2!$A$2:$C$5,3) * VLOOKUP(C5, [1]Sheet3!$A$2:$B$4,2)</f>
-        <v>1944</v>
-      </c>
-      <c r="F5" s="2">
-        <f>VLOOKUP(B5, [1]Sheet2!$A$2:$D$5,4) * VLOOKUP(C5, [1]Sheet3!$A$1:$F$4,6)</f>
-        <v>385</v>
-      </c>
-      <c r="G5" s="2">
-        <f>VLOOKUP(B5, [1]Sheet2!$A$2:$E$5, 5)</f>
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <f>VLOOKUP(B5, [1]Sheet2!$A$2:$F$5, 6)</f>
-        <v>0.7</v>
-      </c>
-      <c r="I5" s="2">
-        <f>ROUND(VLOOKUP(B5, [1]Sheet2!A$2:J$5,10) * VLOOKUP(C5, [1]Sheet3!A$2:J$4,10), 0)</f>
-        <v>599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <f xml:space="preserve"> VLOOKUP(B6,[1]Sheet2!$A$2:$C$5,3) * VLOOKUP(C6, [1]Sheet3!$A$2:$B$4,2)</f>
-        <v>765</v>
-      </c>
-      <c r="F6" s="2">
-        <f>VLOOKUP(B6, [1]Sheet2!$A$2:$D$5,4) * VLOOKUP(C6, [1]Sheet3!$A$1:$F$4,6)</f>
-        <v>90</v>
-      </c>
-      <c r="G6" s="2">
-        <f>VLOOKUP(B6, [1]Sheet2!$A$2:$E$5, 5)</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <f>VLOOKUP(B6, [1]Sheet2!$A$2:$F$5, 6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="2">
-        <f>ROUND(VLOOKUP(B6, [1]Sheet2!A$2:J$5,10) * VLOOKUP(C6, [1]Sheet3!A$2:J$4,10), 0)</f>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2">
-        <f xml:space="preserve"> VLOOKUP(B7,[1]Sheet2!$A$2:$C$5,3) * VLOOKUP(C7, [1]Sheet3!$A$2:$B$4,2)</f>
-        <v>2173.5</v>
-      </c>
-      <c r="F7" s="2">
-        <f>VLOOKUP(B7, [1]Sheet2!$A$2:$D$5,4) * VLOOKUP(C7, [1]Sheet3!$A$1:$F$4,6)</f>
-        <v>140</v>
-      </c>
-      <c r="G7" s="2">
-        <f>VLOOKUP(B7, [1]Sheet2!$A$2:$E$5, 5)</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <f>VLOOKUP(B7, [1]Sheet2!$A$2:$F$5, 6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="2">
-        <f>ROUND(VLOOKUP(B7, [1]Sheet2!A$2:J$5,10) * VLOOKUP(C7, [1]Sheet3!A$2:J$4,10), 0)</f>
-        <v>718</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2">
-        <f xml:space="preserve"> VLOOKUP(B8,[1]Sheet2!$A$2:$C$5,3) * VLOOKUP(C8, [1]Sheet3!$A$2:$B$4,2)</f>
-        <v>5832</v>
-      </c>
-      <c r="F8" s="2">
-        <f>VLOOKUP(B8, [1]Sheet2!$A$2:$D$5,4) * VLOOKUP(C8, [1]Sheet3!$A$1:$F$4,6)</f>
-        <v>220</v>
-      </c>
-      <c r="G8" s="2">
-        <f>VLOOKUP(B8, [1]Sheet2!$A$2:$E$5, 5)</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <f>VLOOKUP(B8, [1]Sheet2!$A$2:$F$5, 6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="2">
-        <f>ROUND(VLOOKUP(B8, [1]Sheet2!A$2:J$5,10) * VLOOKUP(C8, [1]Sheet3!A$2:J$4,10), 0)</f>
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2">
-        <f xml:space="preserve"> VLOOKUP(B9,[1]Sheet2!$A$2:$C$5,3) * VLOOKUP(C9, [1]Sheet3!$A$2:$B$4,2)</f>
-        <v>382.5</v>
-      </c>
-      <c r="F9" s="2">
-        <f>VLOOKUP(B9, [1]Sheet2!$A$2:$D$5,4) * VLOOKUP(C9, [1]Sheet3!$A$1:$F$4,6)</f>
-        <v>135</v>
-      </c>
-      <c r="G9" s="2">
-        <f>VLOOKUP(B9, [1]Sheet2!$A$2:$E$5, 5)</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <f>VLOOKUP(B9, [1]Sheet2!$A$2:$F$5, 6)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I9" s="2">
-        <f>ROUND(VLOOKUP(B9, [1]Sheet2!A$2:J$5,10) * VLOOKUP(C9, [1]Sheet3!A$2:J$4,10), 0)</f>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2">
-        <f xml:space="preserve"> VLOOKUP(B10,[1]Sheet2!$A$2:$C$5,3) * VLOOKUP(C10, [1]Sheet3!$A$2:$B$4,2)</f>
-        <v>1086.75</v>
-      </c>
-      <c r="F10" s="2">
-        <f>VLOOKUP(B10, [1]Sheet2!$A$2:$D$5,4) * VLOOKUP(C10, [1]Sheet3!$A$1:$F$4,6)</f>
-        <v>210</v>
-      </c>
-      <c r="G10" s="2">
-        <f>VLOOKUP(B10, [1]Sheet2!$A$2:$E$5, 5)</f>
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <f>VLOOKUP(B10, [1]Sheet2!$A$2:$F$5, 6)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I10" s="2">
-        <f>ROUND(VLOOKUP(B10, [1]Sheet2!A$2:J$5,10) * VLOOKUP(C10, [1]Sheet3!A$2:J$4,10), 0)</f>
-        <v>599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="L18" s="18">
+        <v>9</v>
+      </c>
+      <c r="M18" s="15">
+        <f>SUM(M3:M11)</f>
+        <v>192637</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" ht="20">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2">
-        <f xml:space="preserve"> VLOOKUP(B11,[1]Sheet2!$A$2:$C$5,3) * VLOOKUP(C11, [1]Sheet3!$A$2:$B$4,2)</f>
-        <v>2916</v>
-      </c>
-      <c r="F11" s="2">
-        <f>VLOOKUP(B11, [1]Sheet2!$A$2:$D$5,4) * VLOOKUP(C11, [1]Sheet3!$A$1:$F$4,6)</f>
-        <v>330</v>
-      </c>
-      <c r="G11" s="2">
-        <f>VLOOKUP(B11, [1]Sheet2!$A$2:$E$5, 5)</f>
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
-        <f>VLOOKUP(B11, [1]Sheet2!$A$2:$F$5, 6)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I11" s="2">
-        <f>ROUND(VLOOKUP(B11, [1]Sheet2!A$2:J$5,10) * VLOOKUP(C11, [1]Sheet3!A$2:J$4,10), 0)</f>
-        <v>899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2">
-        <v>41</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2">
-        <f xml:space="preserve"> VLOOKUP(B12,[1]Sheet2!$A$2:$C$5,3) * VLOOKUP(C12, [1]Sheet3!$A$2:$B$4,2)</f>
-        <v>229.5</v>
-      </c>
-      <c r="F12" s="2">
-        <f>VLOOKUP(B12, [1]Sheet2!$A$2:$D$5,4) * VLOOKUP(C12, [1]Sheet3!$A$1:$F$4,6)</f>
-        <v>180</v>
-      </c>
-      <c r="G12" s="2">
-        <f>VLOOKUP(B12, [1]Sheet2!$A$2:$E$5, 5)</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <f>VLOOKUP(B12, [1]Sheet2!$A$2:$F$5, 6)</f>
-        <v>0.88</v>
-      </c>
-      <c r="I12" s="2">
-        <f>ROUND(VLOOKUP(B12, [1]Sheet2!A$2:J$5,10) * VLOOKUP(C12, [1]Sheet3!A$2:J$4,10), 0)</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2">
-        <f xml:space="preserve"> VLOOKUP(B13,[1]Sheet2!$A$2:$C$5,3) * VLOOKUP(C13, [1]Sheet3!$A$2:$B$4,2)</f>
-        <v>652.05000000000007</v>
-      </c>
-      <c r="F13" s="2">
-        <f>VLOOKUP(B13, [1]Sheet2!$A$2:$D$5,4) * VLOOKUP(C13, [1]Sheet3!$A$1:$F$4,6)</f>
-        <v>280</v>
-      </c>
-      <c r="G13" s="2">
-        <f>VLOOKUP(B13, [1]Sheet2!$A$2:$E$5, 5)</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <f>VLOOKUP(B13, [1]Sheet2!$A$2:$F$5, 6)</f>
-        <v>0.88</v>
-      </c>
-      <c r="I13" s="2">
-        <f>ROUND(VLOOKUP(B13, [1]Sheet2!A$2:J$5,10) * VLOOKUP(C13, [1]Sheet3!A$2:J$4,10), 0)</f>
-        <v>499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2">
-        <v>43</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="L19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="2">
-        <f xml:space="preserve"> VLOOKUP(B14,[1]Sheet2!$A$2:$C$5,3) * VLOOKUP(C14, [1]Sheet3!$A$2:$B$4,2)</f>
-        <v>1749.6000000000001</v>
-      </c>
-      <c r="F14" s="2">
-        <f>VLOOKUP(B14, [1]Sheet2!$A$2:$D$5,4) * VLOOKUP(C14, [1]Sheet3!$A$1:$F$4,6)</f>
-        <v>440</v>
-      </c>
-      <c r="G14" s="2">
-        <f>VLOOKUP(B14, [1]Sheet2!$A$2:$E$5, 5)</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <f>VLOOKUP(B14, [1]Sheet2!$A$2:$F$5, 6)</f>
-        <v>0.88</v>
-      </c>
-      <c r="I14" s="2">
-        <f>ROUND(VLOOKUP(B14, [1]Sheet2!A$2:J$5,10) * VLOOKUP(C14, [1]Sheet3!A$2:J$4,10), 0)</f>
-        <v>749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4">
-        <v>51</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="M19" s="15">
+        <f>M14</f>
+        <v>222361</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" ht="20">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4">
-        <v>52</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4">
-        <v>53</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4">
-        <v>54</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4">
-        <v>55</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="M20" s="14">
+        <f>SUM(M15:M19)</f>
+        <v>740789</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4880,7 +4919,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4895,10 +4934,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4914,7 +4953,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2">
-        <v>399</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4922,7 +4961,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>599</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4930,7 +4969,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="2">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4938,7 +4977,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="2">
-        <v>718</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4946,7 +4985,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="2">
-        <v>1078</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4954,7 +4993,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="2">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4962,7 +5001,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="2">
-        <v>599</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4970,7 +5009,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="2">
-        <v>849</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4978,7 +5017,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="2">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4986,7 +5025,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="2">
-        <v>499</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4994,7 +5033,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="2">
-        <v>749</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5002,7 +5041,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5010,7 +5049,7 @@
         <v>52</v>
       </c>
       <c r="B16" s="2">
-        <v>1000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5018,7 +5057,7 @@
         <v>53</v>
       </c>
       <c r="B17" s="2">
-        <v>1000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5026,7 +5065,7 @@
         <v>54</v>
       </c>
       <c r="B18" s="2">
-        <v>1000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5034,7 +5073,7 @@
         <v>55</v>
       </c>
       <c r="B19" s="2">
-        <v>1000</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
